--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_32.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2953698.690759361</v>
+        <v>3029228.360424165</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -656,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>215.0393446428039</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -674,10 +676,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>111.0497046617689</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -835,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>88.01378153007219</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,19 +861,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>94.63926978364057</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>100.0211679672774</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S5" t="n">
-        <v>95.04536685828211</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -956,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +992,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>99.94386789669853</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1096,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1105,19 +1107,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>129.0246247964037</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>152.7210107970844</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1148,7 +1150,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>91.72166227029922</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481165</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,13 +1189,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1288,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1312,7 +1314,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853697</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491427</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>111.0770101458548</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1348,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>54.09037106458536</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896916</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113178</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274088</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.950364805199</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498011</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701333</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560537</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>156.217430241511</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,22 +1578,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>115.5269768002164</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583894</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985775</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.1376433238281</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.5229983365911</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890373</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1604,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206822</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113178</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274088</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498011</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560537</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,25 +1767,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986279</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182125</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>29.08796962576666</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229314</v>
+        <v>55.21337964607778</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633777</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,22 +1818,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890373</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520949</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896916</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113178</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274084</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,22 +1897,22 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560537</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986279</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182125</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>100.642908920598</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2056,19 +2058,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985775</v>
+        <v>54.69903809639916</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2242,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>54.6855279182297</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>64.3419076393841</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,22 +2478,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,22 +2526,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>45.08911464739501</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2558,13 +2560,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417103</v>
       </c>
       <c r="G26" t="n">
         <v>411.9645167896915</v>
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2761,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2773,13 +2775,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>31.42218700821035</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2852,7 +2854,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2968,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>57.64843562452558</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>35.85948444767403</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3013,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3047,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,22 +3189,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>22.71377501301483</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>74.95293542155801</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3284,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3433,16 +3435,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836034</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583894</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985775</v>
+        <v>178.4653792139728</v>
       </c>
       <c r="V37" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.5229983365911</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>143.3158222056502</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836034</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583894</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985775</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>169.7438101404411</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.5229983365911</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890373</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>174.3062600431766</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3907,16 +3909,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>25.82923535834106</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3955,13 +3957,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>42.41159191917706</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4141,16 +4143,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>147.2333687658387</v>
+        <v>139.1537278750035</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,31 +4306,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1485.892406545185</v>
+        <v>1534.318342165211</v>
       </c>
       <c r="C2" t="n">
-        <v>1485.892406545185</v>
+        <v>1534.318342165211</v>
       </c>
       <c r="D2" t="n">
-        <v>1268.68094731003</v>
+        <v>1534.318342165211</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>1148.530089566967</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>737.5441847773595</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>319.5803766755464</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4358,22 +4360,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>1838.661061815299</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W2" t="n">
-        <v>1485.892406545185</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="X2" t="n">
-        <v>1485.892406545185</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="Y2" t="n">
-        <v>1485.892406545185</v>
+        <v>1920.918182229333</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.5023158795657</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>188.5023158795657</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>188.5023158795657</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>188.5023158795657</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>188.5023158795657</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>188.5023158795657</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>188.5023158795657</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4509,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600564</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600564</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600564</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W4" t="n">
-        <v>409.2948950230958</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>409.2948950230958</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>188.5023158795657</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1995.909162857192</v>
+        <v>1307.111989013773</v>
       </c>
       <c r="C5" t="n">
-        <v>1626.94664591678</v>
+        <v>938.1494720733613</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.68094731003</v>
+        <v>579.8837734666108</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>579.8837734666108</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>168.8978686770033</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>154.9744646155942</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>154.9744646155942</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4580,37 +4582,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2601.143669949251</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2382.509002921313</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U5" t="n">
-        <v>2382.509002921313</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="V5" t="n">
-        <v>2382.509002921313</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="W5" t="n">
-        <v>2382.509002921313</v>
+        <v>2070.717079250664</v>
       </c>
       <c r="X5" t="n">
-        <v>2382.509002921313</v>
+        <v>1697.251320989585</v>
       </c>
       <c r="Y5" t="n">
-        <v>2382.509002921313</v>
+        <v>1307.111989013773</v>
       </c>
     </row>
     <row r="6">
@@ -4635,22 +4637,22 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M6" t="n">
         <v>1313.210296315296</v>
@@ -4659,10 +4661,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>470.7225141620388</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C7" t="n">
-        <v>301.7863312341319</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D7" t="n">
-        <v>301.7863312341319</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E7" t="n">
-        <v>301.7863312341319</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F7" t="n">
-        <v>154.8963837362216</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X7" t="n">
-        <v>470.7225141620388</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y7" t="n">
-        <v>470.7225141620388</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1251.855211652197</v>
+        <v>975.540838419158</v>
       </c>
       <c r="C8" t="n">
-        <v>882.8926947117852</v>
+        <v>975.540838419158</v>
       </c>
       <c r="D8" t="n">
-        <v>882.8926947117852</v>
+        <v>975.540838419158</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>975.540838419158</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>564.5549336295505</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036447</v>
+        <v>146.5911255277374</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4828,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520779</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U8" t="n">
-        <v>2169.723949158871</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="V8" t="n">
-        <v>2169.723949158871</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="W8" t="n">
-        <v>2169.723949158871</v>
+        <v>2125.745768720171</v>
       </c>
       <c r="X8" t="n">
-        <v>1796.258190897791</v>
+        <v>1752.280010459091</v>
       </c>
       <c r="Y8" t="n">
-        <v>1406.118858921979</v>
+        <v>1362.14067848328</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
         <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571351</v>
+        <v>713.806220357135</v>
       </c>
       <c r="M9" t="n">
         <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,7 +4938,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>404.8646000824888</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="C10" t="n">
         <v>235.9284171545818</v>
@@ -4960,10 +4962,10 @@
         <v>99.59950625323009</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
         <v>237.8190324477911</v>
@@ -4972,40 +4974,40 @@
         <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600566</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R10" t="n">
-        <v>586.5130649127285</v>
+        <v>579.9823256406186</v>
       </c>
       <c r="S10" t="n">
-        <v>586.5130649127285</v>
+        <v>579.9823256406186</v>
       </c>
       <c r="T10" t="n">
-        <v>586.5130649127285</v>
+        <v>579.9823256406186</v>
       </c>
       <c r="U10" t="n">
-        <v>586.5130649127285</v>
+        <v>579.9823256406186</v>
       </c>
       <c r="V10" t="n">
-        <v>586.5130649127285</v>
+        <v>525.3455871915424</v>
       </c>
       <c r="W10" t="n">
-        <v>586.5130649127285</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="X10" t="n">
-        <v>586.5130649127285</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="Y10" t="n">
-        <v>586.5130649127285</v>
+        <v>235.9284171545818</v>
       </c>
     </row>
     <row r="11">
@@ -5030,49 +5032,49 @@
         <v>904.3190116155893</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805472</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028579</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
         <v>3931.294970121731</v>
@@ -5115,31 +5117,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L12" t="n">
-        <v>880.8106280646857</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M12" t="n">
-        <v>1188.130761344647</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>1517.99338900868</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O12" t="n">
-        <v>1797.533454227377</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P12" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>972.2646934632138</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>822.148054050878</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684849</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688069</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799361</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471187</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1158.436939387593</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U13" t="n">
-        <v>869.3083006011509</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V13" t="n">
-        <v>614.6238123952639</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W13" t="n">
-        <v>325.2066423583033</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028584</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>1298.996260473455</v>
       </c>
     </row>
     <row r="14">
@@ -5258,25 +5260,25 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805472</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514085</v>
@@ -5285,19 +5287,19 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
@@ -5343,34 +5345,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I15" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>760.7169704793931</v>
+        <v>731.0291971045613</v>
       </c>
       <c r="C16" t="n">
-        <v>591.7807875514861</v>
+        <v>731.0291971045613</v>
       </c>
       <c r="D16" t="n">
-        <v>441.6641481391503</v>
+        <v>731.0291971045613</v>
       </c>
       <c r="E16" t="n">
-        <v>412.2823606383758</v>
+        <v>583.1161035221681</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404654</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688069</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799361</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471187</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557901</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557901</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="V16" t="n">
-        <v>1498.916270557901</v>
+        <v>1020.446367141522</v>
       </c>
       <c r="W16" t="n">
-        <v>1209.499100520941</v>
+        <v>731.0291971045613</v>
       </c>
       <c r="X16" t="n">
-        <v>981.5095496229234</v>
+        <v>731.0291971045613</v>
       </c>
       <c r="Y16" t="n">
-        <v>760.7169704793931</v>
+        <v>731.0291971045613</v>
       </c>
     </row>
     <row r="17">
@@ -5489,55 +5491,55 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805472</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5546,19 +5548,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5592,25 +5594,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1470.815640507006</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1800.678268171039</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>517.9294177607287</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="C19" t="n">
-        <v>348.9932348328217</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="D19" t="n">
-        <v>198.8765954204859</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.785188168807</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799361</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471188</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.787631771459</v>
+        <v>1443.664716925176</v>
       </c>
       <c r="V19" t="n">
-        <v>1209.787631771459</v>
+        <v>1443.664716925176</v>
       </c>
       <c r="W19" t="n">
-        <v>920.3704617344988</v>
+        <v>1154.247546888215</v>
       </c>
       <c r="X19" t="n">
-        <v>920.3704617344988</v>
+        <v>926.257995990198</v>
       </c>
       <c r="Y19" t="n">
-        <v>699.5778825909686</v>
+        <v>705.4654168466678</v>
       </c>
     </row>
     <row r="20">
@@ -5744,37 +5746,37 @@
         <v>488.1932370805471</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5826,7 +5828,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126482</v>
@@ -5838,16 +5840,16 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1689.561836756086</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>2019.424464420119</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2298.964529638816</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2503.987010421026</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1141.200876391121</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C22" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5932,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>1443.678363569792</v>
       </c>
       <c r="T22" t="n">
-        <v>1387.841167119728</v>
+        <v>1219.892948359297</v>
       </c>
       <c r="U22" t="n">
-        <v>1387.841167119728</v>
+        <v>1219.892948359297</v>
       </c>
       <c r="V22" t="n">
-        <v>1387.841167119728</v>
+        <v>965.2084601534104</v>
       </c>
       <c r="W22" t="n">
-        <v>1387.841167119728</v>
+        <v>675.7912901164499</v>
       </c>
       <c r="X22" t="n">
-        <v>1322.84934122136</v>
+        <v>447.8017392184325</v>
       </c>
       <c r="Y22" t="n">
-        <v>1322.84934122136</v>
+        <v>447.8017392184325</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -5999,7 +6001,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6011,28 +6013,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6065,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>412.6079778147081</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
-        <v>966.6932390011339</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1296.555866665167</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>4391.604587469458</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>4222.668404541551</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>4072.551765129215</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>3924.638671546822</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>3777.748724048912</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>3609.573402368732</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S25" t="n">
-        <v>1382.222354598086</v>
+        <v>4660.934562929846</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>4437.149147719352</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011506</v>
+        <v>4391.604587469458</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>4391.604587469458</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>4391.604587469458</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>4391.604587469458</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>4391.604587469458</v>
       </c>
     </row>
     <row r="26">
@@ -6203,34 +6205,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F26" t="n">
         <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6239,34 +6241,34 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6291,34 +6293,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>412.6079778147081</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>1026.505047571597</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M27" t="n">
-        <v>1333.825180851558</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1663.687808515591</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6409,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="29">
@@ -6437,55 +6439,55 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231263</v>
@@ -6500,13 +6502,13 @@
         <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6528,34 +6530,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K30" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L30" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M30" t="n">
-        <v>966.6932390011339</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1771.104817265285</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2050.644882483982</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3628.091576844582</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C31" t="n">
-        <v>3459.155393916675</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D31" t="n">
-        <v>3459.155393916675</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E31" t="n">
-        <v>3459.155393916675</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F31" t="n">
-        <v>3459.155393916675</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G31" t="n">
-        <v>3459.155393916675</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916675</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4802.623829959216</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>4802.623829959216</v>
+        <v>1262.774559011158</v>
       </c>
       <c r="U31" t="n">
-        <v>4802.623829959216</v>
+        <v>973.645920224716</v>
       </c>
       <c r="V31" t="n">
-        <v>4547.939341753329</v>
+        <v>718.9614320188291</v>
       </c>
       <c r="W31" t="n">
-        <v>4258.522171716369</v>
+        <v>429.5442619818684</v>
       </c>
       <c r="X31" t="n">
-        <v>4030.532620818351</v>
+        <v>429.5442619818684</v>
       </c>
       <c r="Y31" t="n">
-        <v>3809.740041674821</v>
+        <v>208.7516828383384</v>
       </c>
     </row>
     <row r="32">
@@ -6677,19 +6679,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6710,16 +6712,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6731,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C33" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D33" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>2500.819361250803</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
-        <v>2911.709630095316</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>3158.47475800178</v>
+        <v>816.7950850315615</v>
       </c>
       <c r="M33" t="n">
-        <v>3465.794891281741</v>
+        <v>1124.115218311523</v>
       </c>
       <c r="N33" t="n">
-        <v>3795.657518945774</v>
+        <v>1453.977845975556</v>
       </c>
       <c r="O33" t="n">
-        <v>4075.197584164472</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P33" t="n">
-        <v>4565.745155698578</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S33" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T33" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U33" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W33" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X33" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y33" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="34">
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>268.0733921265323</v>
+        <v>731.6365520183392</v>
       </c>
       <c r="C34" t="n">
-        <v>268.0733921265323</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="D34" t="n">
-        <v>268.0733921265323</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="E34" t="n">
-        <v>120.1602985441392</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F34" t="n">
-        <v>120.1602985441392</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H34" t="n">
         <v>97.21709146028584</v>
@@ -6880,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>1187.92115703528</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V34" t="n">
-        <v>1187.92115703528</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W34" t="n">
-        <v>898.5039869983195</v>
+        <v>1134.077595992109</v>
       </c>
       <c r="X34" t="n">
-        <v>670.5144361003022</v>
+        <v>1134.077595992109</v>
       </c>
       <c r="Y34" t="n">
-        <v>449.7218569567721</v>
+        <v>913.2850168485789</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6929,31 +6931,31 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
@@ -6968,19 +6970,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7014,25 +7016,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>843.1711433963917</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.785188168807</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799361</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471188</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
         <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473454</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>786.0822064765176</v>
+        <v>1318.648210745809</v>
       </c>
       <c r="V37" t="n">
-        <v>531.3977182706307</v>
+        <v>1063.963722539922</v>
       </c>
       <c r="W37" t="n">
-        <v>241.9805482336699</v>
+        <v>1063.963722539922</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028584</v>
+        <v>1063.963722539922</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>843.1711433963917</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7163,13 +7165,13 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
@@ -7178,25 +7180,25 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7205,19 +7207,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,22 +7250,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341674</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M39" t="n">
-        <v>841.863114014129</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N39" t="n">
-        <v>1171.725741678162</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O39" t="n">
         <v>1808.163466324677</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>972.2646934632138</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>822.148054050878</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684849</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.785188168807</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799361</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471188</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
         <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473454</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>786.0822064765176</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952639</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583033</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="41">
@@ -7388,46 +7390,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
@@ -7442,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7488,25 +7490,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K42" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>659.3731057211721</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M42" t="n">
-        <v>966.6932390011339</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N42" t="n">
-        <v>1771.104817265285</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O42" t="n">
-        <v>2050.644882483982</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>441.900558318119</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C43" t="n">
-        <v>441.900558318119</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D43" t="n">
-        <v>441.900558318119</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E43" t="n">
-        <v>441.900558318119</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F43" t="n">
-        <v>441.900558318119</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>273.7252366379396</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>123.3072281858829</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7603,16 +7605,16 @@
         <v>986.0022165609664</v>
       </c>
       <c r="V43" t="n">
-        <v>731.3177283550796</v>
+        <v>943.1622247234138</v>
       </c>
       <c r="W43" t="n">
-        <v>441.900558318119</v>
+        <v>653.7450546864533</v>
       </c>
       <c r="X43" t="n">
-        <v>441.900558318119</v>
+        <v>425.7555037884359</v>
       </c>
       <c r="Y43" t="n">
-        <v>441.900558318119</v>
+        <v>425.7555037884359</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7627,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
         <v>1701.09316900344</v>
@@ -7634,43 +7636,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7679,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7722,31 +7724,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>563.7235151749151</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C46" t="n">
-        <v>563.7235151749151</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D46" t="n">
-        <v>563.7235151749151</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E46" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7828,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1039.200582524332</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>1039.200582524332</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V46" t="n">
-        <v>784.5160943184452</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W46" t="n">
-        <v>784.5160943184452</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>784.5160943184452</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y46" t="n">
-        <v>563.7235151749151</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8307,13 +8309,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783517</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8541,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028829</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.658803395178</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>349.7653003338569</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8784,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -8933,7 +8935,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -9021,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9255,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>253.7371603504737</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9413,10 +9415,10 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627452</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714841</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9486,7 +9488,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9495,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
-        <v>32.78140656352421</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9638,7 +9640,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
@@ -9717,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9729,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>234.4116509503166</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9878,7 +9880,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504502</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -9893,7 +9895,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599021</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9954,10 +9956,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9966,16 +9968,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>182.0340742867944</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10191,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10200,19 +10202,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>73.53204524670008</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10370,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>285.1031356539335</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10440,16 +10442,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776736</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10604,7 +10606,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599059</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10662,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10677,16 +10679,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>124.3400780863232</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,7 +10904,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10914,7 +10916,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>360.5026862907255</v>
+        <v>96.03744927814699</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -10923,7 +10925,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,31 +11138,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>199.7396287231156</v>
       </c>
       <c r="P42" t="n">
-        <v>73.53204524670008</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,13 +11375,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11388,16 +11390,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208064</v>
+        <v>124.3400780863232</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819374</v>
+        <v>23.61454994042634</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986279</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182125</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465693</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229314</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633777</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675362</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.4192454642721</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037929</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>82.39383318338692</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>117.3459930208026</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>90.20766837685346</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675362</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.4192454642721</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037929</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836034</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583894</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985775</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.1376433238281</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23890,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>45.79105372597127</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633777</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.4192454642721</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037929</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836034</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583894</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>231.5383143021782</v>
       </c>
       <c r="V19" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24130,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>143.2352820653736</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>161.3677477496531</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24364,22 +24366,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24412,22 +24414,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>241.1482377511823</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24649,7 +24651,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24661,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>194.2874683808268</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24856,7 +24858,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,13 +24888,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>140.2723743590777</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>185.6880766107152</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24901,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25075,22 +25077,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>143.7797934503627</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25120,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>211.570062915033</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25312,7 +25314,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25321,16 +25323,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633777</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675362</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.4192454642721</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037929</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>107.7719731846046</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>82.39383318338702</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520949</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25546,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633777</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675362</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.4192454642721</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037929</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>82.39383318338699</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>44.27839330891823</v>
       </c>
     </row>
     <row r="41">
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25795,16 +25797,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>84.59001010593092</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25843,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>209.7260514046509</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26029,16 +26031,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26068,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>74.31419229255059</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>757213.0894325101</v>
+        <v>757213.0894325102</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>757213.0894325101</v>
+        <v>757213.0894325103</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>757213.0894325103</v>
+        <v>757213.0894325102</v>
       </c>
     </row>
     <row r="9">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>757213.0894325101</v>
+        <v>757213.0894325102</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>757213.0894325101</v>
+        <v>757213.0894325102</v>
       </c>
     </row>
     <row r="15">
@@ -26311,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914268</v>
+        <v>656833.4158914264</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914266</v>
+        <v>656833.4158914265</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914263</v>
+        <v>656833.4158914264</v>
       </c>
       <c r="E2" t="n">
+        <v>625646.4955803338</v>
+      </c>
+      <c r="F2" t="n">
+        <v>625646.4955803343</v>
+      </c>
+      <c r="G2" t="n">
+        <v>625646.495580334</v>
+      </c>
+      <c r="H2" t="n">
+        <v>625646.495580334</v>
+      </c>
+      <c r="I2" t="n">
+        <v>625646.4955803342</v>
+      </c>
+      <c r="J2" t="n">
         <v>625646.4955803341</v>
-      </c>
-      <c r="F2" t="n">
-        <v>625646.4955803341</v>
-      </c>
-      <c r="G2" t="n">
-        <v>625646.4955803342</v>
-      </c>
-      <c r="H2" t="n">
-        <v>625646.4955803342</v>
-      </c>
-      <c r="I2" t="n">
-        <v>625646.4955803341</v>
-      </c>
-      <c r="J2" t="n">
-        <v>625646.4955803343</v>
       </c>
       <c r="K2" t="n">
         <v>625646.4955803342</v>
       </c>
       <c r="L2" t="n">
+        <v>625646.495580334</v>
+      </c>
+      <c r="M2" t="n">
         <v>625646.4955803341</v>
       </c>
-      <c r="M2" t="n">
-        <v>625646.495580334</v>
-      </c>
       <c r="N2" t="n">
-        <v>625646.4955803342</v>
+        <v>625646.4955803341</v>
       </c>
       <c r="O2" t="n">
         <v>625646.4955803343</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768958</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925928</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,13 +26426,13 @@
         <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.669621439</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.66962143902</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="G4" t="n">
-        <v>15045.669621439</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
         <v>15045.6696214391</v>
@@ -26439,22 +26441,22 @@
         <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
+        <v>15045.66962143914</v>
+      </c>
+      <c r="K4" t="n">
+        <v>15045.66962143915</v>
+      </c>
+      <c r="L4" t="n">
         <v>15045.6696214391</v>
       </c>
-      <c r="K4" t="n">
-        <v>15045.66962143909</v>
-      </c>
-      <c r="L4" t="n">
-        <v>15045.66962143909</v>
-      </c>
       <c r="M4" t="n">
-        <v>15045.66962143906</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="N4" t="n">
-        <v>15045.66962143906</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="O4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="P4" t="n">
         <v>15045.6696214391</v>
@@ -26470,16 +26472,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
@@ -26488,25 +26490,25 @@
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="O5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="O5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26519,43 +26521,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-172768.4996377497</v>
+        <v>-172768.4996377502</v>
       </c>
       <c r="C6" t="n">
-        <v>417199.3795767946</v>
+        <v>417199.3795767944</v>
       </c>
       <c r="D6" t="n">
-        <v>417199.3795767942</v>
+        <v>417199.3795767943</v>
       </c>
       <c r="E6" t="n">
-        <v>-6546.536466717254</v>
+        <v>-6546.536466718389</v>
       </c>
       <c r="F6" t="n">
+        <v>518613.5000101788</v>
+      </c>
+      <c r="G6" t="n">
         <v>518613.5000101785</v>
       </c>
-      <c r="G6" t="n">
-        <v>518613.5000101787</v>
-      </c>
       <c r="H6" t="n">
-        <v>518613.5000101785</v>
+        <v>518613.5000101783</v>
       </c>
       <c r="I6" t="n">
         <v>518613.5000101784</v>
       </c>
       <c r="J6" t="n">
-        <v>342190.2808175858</v>
+        <v>342190.2808175855</v>
       </c>
       <c r="K6" t="n">
         <v>518613.5000101785</v>
       </c>
       <c r="L6" t="n">
+        <v>518613.5000101783</v>
+      </c>
+      <c r="M6" t="n">
+        <v>383812.4847763411</v>
+      </c>
+      <c r="N6" t="n">
         <v>518613.5000101784</v>
-      </c>
-      <c r="M6" t="n">
-        <v>383812.4847763412</v>
-      </c>
-      <c r="N6" t="n">
-        <v>518613.5000101785</v>
       </c>
       <c r="O6" t="n">
         <v>518613.5000101787</v>
@@ -26738,46 +26740,46 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541005</v>
+      </c>
+      <c r="F3" t="n">
+        <v>830.3824054541005</v>
+      </c>
+      <c r="G3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="F3" t="n">
+      <c r="H3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="G3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="H3" t="n">
-        <v>830.3824054541003</v>
-      </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26790,13 +26792,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
         <v>1215.213643253573</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370133</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545551</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>139.6436969778791</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27394,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>212.8730681025883</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,22 +27432,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27555,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>46.95184026226603</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,19 +27581,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>117.5062691663783</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27603,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>51.9101482775838</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>79.37034595068943</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27676,13 +27678,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,10 +27785,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>67.36593436235238</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27795,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,28 +27818,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>96.01048066168062</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>230.0128308663961</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27868,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>232.2011104940579</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448612</v>
@@ -27898,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27907,13 +27909,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28053,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R10" t="n">
-        <v>35.58818183430303</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28068,10 +28070,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>198.0472722592426</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -29284,7 +29286,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -29572,7 +29574,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -31282,43 +31284,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P5" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,25 +31460,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31516,10 +31518,10 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31531,28 +31533,28 @@
         <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
         <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472037</v>
@@ -31592,13 +31594,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890691</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
         <v>76.7639270839648</v>
@@ -31613,7 +31615,7 @@
         <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
         <v>193.3156655923048</v>
@@ -31625,16 +31627,16 @@
         <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31674,16 +31676,16 @@
         <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31692,19 +31694,19 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,7 +32703,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32712,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32862,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32876,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,7 +32940,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,31 +32949,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33020,31 +33022,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33099,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,7 +33113,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33123,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34796,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P5" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35106,10 +35108,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35179,7 +35181,7 @@
         <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
         <v>478.8956552492238</v>
@@ -35188,7 +35190,7 @@
         <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.997506289869</v>
@@ -35261,16 +35263,16 @@
         <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338904</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35346,7 +35348,7 @@
         <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L12" t="n">
-        <v>599.0230052898812</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556542</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299104</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799284</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056035</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206027</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118006</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187465</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415081</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556542</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299104</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799284</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056035</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206027</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118006</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187465</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>536.1008625915819</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556543</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799284</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056035</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206028</v>
@@ -36060,7 +36062,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187466</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,28 +36123,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109137</v>
       </c>
       <c r="Q20" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,19 +36208,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
-        <v>120.7944393485983</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,28 +36360,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36439,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>516.7753531914248</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,25 +36600,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502023</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,22 +36676,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>464.3977765279026</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36750,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36771,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,22 +36913,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>280.6254601782248</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36987,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37002,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,25 +37147,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>534.3608406099578</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091983</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37224,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37239,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37324,10 +37326,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150206</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>331.4334930178478</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,19 +37463,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556543</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799284</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056035</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
         <v>236.2373515206028</v>
@@ -37482,7 +37484,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187466</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,22 +37621,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>642.8663885318336</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P39" t="n">
         <v>525.5561835714618</v>
@@ -37698,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556543</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799284</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056035</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
         <v>236.2373515206028</v>
@@ -37719,7 +37721,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187466</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>482.1033309642237</v>
       </c>
       <c r="P42" t="n">
-        <v>280.6254601782248</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37950,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523311</v>
+        <v>331.4334930178478</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38187,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3029228.360424165</v>
+        <v>3022211.345532454</v>
       </c>
     </row>
     <row r="7">
@@ -661,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>111.0497046617689</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>31.75244787057794</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -715,16 +715,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -828,16 +828,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>63.57678144609342</v>
       </c>
       <c r="S4" t="n">
-        <v>94.63926978364057</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -904,10 +904,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>60.46179076613072</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>100.0211679672774</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -992,10 +992,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1107,13 +1107,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>129.0246247964037</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1135,22 +1135,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>91.72166227029922</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>5.983388191320505</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1311,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853698</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>54.09037106458536</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>99.90187484148946</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634815</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>156.217430241511</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>154.3402146325877</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1773,19 +1773,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>55.21337964607778</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2013,16 +2013,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>54.69903809639916</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>169.7438101404424</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>54.6855279182297</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2478,22 +2478,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>97.12772045570674</v>
       </c>
       <c r="U25" t="n">
-        <v>45.08911464739501</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2566,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417103</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>411.9645167896915</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2620,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2769,19 +2769,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>31.42218700821035</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2854,7 +2854,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T31" t="n">
-        <v>35.85948444767403</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3198,13 +3198,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3240,22 +3240,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>74.95293542155801</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>173.9898110906269</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3283,7 +3283,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I35" t="n">
         <v>81.77913505274077</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3435,16 +3435,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>178.4653792139728</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>169.7438101404423</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>174.3062600431766</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3948,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>42.41159191917706</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>139.1537278750035</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4197,10 +4197,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>250.0068403603052</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1534.318342165211</v>
+        <v>1238.153685885794</v>
       </c>
       <c r="C2" t="n">
-        <v>1534.318342165211</v>
+        <v>869.1911689453821</v>
       </c>
       <c r="D2" t="n">
-        <v>1534.318342165211</v>
+        <v>510.9254703386316</v>
       </c>
       <c r="E2" t="n">
-        <v>1148.530089566967</v>
+        <v>510.9254703386316</v>
       </c>
       <c r="F2" t="n">
-        <v>737.5441847773595</v>
+        <v>99.939565549024</v>
       </c>
       <c r="G2" t="n">
-        <v>319.5803766755464</v>
+        <v>86.01616148761489</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>86.01616148761489</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4333,10 +4333,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4363,19 +4363,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V2" t="n">
-        <v>2311.057514205145</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W2" t="n">
-        <v>2311.057514205145</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="X2" t="n">
-        <v>2311.057514205145</v>
+        <v>2014.892857925727</v>
       </c>
       <c r="Y2" t="n">
-        <v>1920.918182229333</v>
+        <v>1624.753525949915</v>
       </c>
     </row>
     <row r="3">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>663.9100130487641</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>663.9100130487641</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>663.9100130487641</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>663.9100130487641</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>517.0200655508537</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>663.9100130487641</v>
       </c>
       <c r="S4" t="n">
-        <v>632.5337622027571</v>
+        <v>663.9100130487641</v>
       </c>
       <c r="T4" t="n">
-        <v>632.5337622027571</v>
+        <v>663.9100130487641</v>
       </c>
       <c r="U4" t="n">
-        <v>343.360151857325</v>
+        <v>663.9100130487641</v>
       </c>
       <c r="V4" t="n">
-        <v>343.360151857325</v>
+        <v>663.9100130487641</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>663.9100130487641</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>663.9100130487641</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>663.9100130487641</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1307.111989013773</v>
+        <v>863.1126181035238</v>
       </c>
       <c r="C5" t="n">
-        <v>938.1494720733613</v>
+        <v>494.1501011631121</v>
       </c>
       <c r="D5" t="n">
-        <v>579.8837734666108</v>
+        <v>135.8844025563616</v>
       </c>
       <c r="E5" t="n">
-        <v>579.8837734666108</v>
+        <v>74.81188663097701</v>
       </c>
       <c r="F5" t="n">
-        <v>168.8978686770033</v>
+        <v>67.86638588177354</v>
       </c>
       <c r="G5" t="n">
-        <v>154.9744646155942</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H5" t="n">
-        <v>154.9744646155942</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520779</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2423.485734520779</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2423.485734520779</v>
+        <v>2366.086203674651</v>
       </c>
       <c r="W5" t="n">
-        <v>2070.717079250664</v>
+        <v>2013.317548404537</v>
       </c>
       <c r="X5" t="n">
-        <v>1697.251320989585</v>
+        <v>1639.851790143457</v>
       </c>
       <c r="Y5" t="n">
-        <v>1307.111989013773</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="6">
@@ -4637,28 +4637,28 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615929</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572649</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036446</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036446</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036446</v>
+        <v>369.8327295799423</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>597.8010803716834</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>308.6274700262513</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>975.540838419158</v>
+        <v>802.0401021781393</v>
       </c>
       <c r="C8" t="n">
-        <v>975.540838419158</v>
+        <v>433.0775852377275</v>
       </c>
       <c r="D8" t="n">
-        <v>975.540838419158</v>
+        <v>74.81188663097704</v>
       </c>
       <c r="E8" t="n">
-        <v>975.540838419158</v>
+        <v>74.81188663097704</v>
       </c>
       <c r="F8" t="n">
-        <v>564.5549336295505</v>
+        <v>67.86638588177357</v>
       </c>
       <c r="G8" t="n">
-        <v>146.5911255277374</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733131</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224083</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977176</v>
       </c>
       <c r="O8" t="n">
         <v>2238.84331964269</v>
@@ -4825,31 +4825,31 @@
         <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990286</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="U8" t="n">
-        <v>2478.514423990286</v>
+        <v>2636.076575092838</v>
       </c>
       <c r="V8" t="n">
-        <v>2478.514423990286</v>
+        <v>2305.013687749267</v>
       </c>
       <c r="W8" t="n">
-        <v>2125.745768720171</v>
+        <v>1952.245032479153</v>
       </c>
       <c r="X8" t="n">
-        <v>1752.280010459091</v>
+        <v>1578.779274218073</v>
       </c>
       <c r="Y8" t="n">
-        <v>1362.14067848328</v>
+        <v>1188.639942242261</v>
       </c>
     </row>
     <row r="9">
@@ -4874,28 +4874,28 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L9" t="n">
-        <v>713.806220357135</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="C10" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="D10" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="E10" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="F10" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="G10" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.8190324477912</v>
       </c>
       <c r="M10" t="n">
         <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064346</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406186</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406186</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="T10" t="n">
-        <v>579.9823256406186</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="U10" t="n">
-        <v>579.9823256406186</v>
+        <v>409.5384547146245</v>
       </c>
       <c r="V10" t="n">
-        <v>525.3455871915424</v>
+        <v>154.8539665087377</v>
       </c>
       <c r="W10" t="n">
-        <v>235.9284171545818</v>
+        <v>154.8539665087377</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="Y10" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036448</v>
       </c>
     </row>
     <row r="11">
@@ -5020,28 +5020,28 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028579</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514083</v>
@@ -5056,7 +5056,7 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
         <v>4454.632848899128</v>
@@ -5065,7 +5065,7 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231265</v>
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571611</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636253</v>
+        <v>563.7235867775516</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.37645130762</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1141.200876391121</v>
+        <v>716.8555221680798</v>
       </c>
       <c r="C13" t="n">
-        <v>972.2646934632138</v>
+        <v>547.9193392401729</v>
       </c>
       <c r="D13" t="n">
-        <v>822.148054050878</v>
+        <v>547.9193392401729</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684849</v>
+        <v>400.0062456577798</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705745</v>
+        <v>253.1162981598694</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U13" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V13" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="W13" t="n">
-        <v>1298.996260473455</v>
+        <v>898.5039869983195</v>
       </c>
       <c r="X13" t="n">
-        <v>1298.996260473455</v>
+        <v>898.5039869983195</v>
       </c>
       <c r="Y13" t="n">
-        <v>1298.996260473455</v>
+        <v>898.5039869983195</v>
       </c>
     </row>
     <row r="14">
@@ -5254,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
@@ -5269,43 +5269,43 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5345,37 +5345,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636251</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.37645130762</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>731.0291971045613</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>731.0291971045613</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>731.0291971045613</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>583.1161035221681</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347409</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1275.130855347409</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V16" t="n">
-        <v>1020.446367141522</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W16" t="n">
-        <v>731.0291971045613</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X16" t="n">
-        <v>731.0291971045613</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y16" t="n">
-        <v>731.0291971045613</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5515,13 +5515,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5594,25 +5594,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1443.664716925176</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>1443.664716925176</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>1154.247546888215</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>926.257995990198</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>705.4654168466678</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
@@ -5743,16 +5743,16 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K20" t="n">
         <v>889.2841917514083</v>
@@ -5770,13 +5770,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5785,19 +5785,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5828,7 +5828,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126482</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1443.678363569792</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1219.892948359297</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>1219.892948359297</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>965.2084601534104</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>675.7912901164499</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>447.8017392184325</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>447.8017392184325</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5968,31 +5968,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6007,28 +6007,28 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6065,31 +6065,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4391.604587469458</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>4222.668404541551</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>4072.551765129215</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>3924.638671546822</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>3777.748724048912</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>3609.573402368732</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014293</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>4660.934562929846</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>4437.149147719352</v>
+        <v>1089.812348494162</v>
       </c>
       <c r="U25" t="n">
-        <v>4391.604587469458</v>
+        <v>800.6837097077201</v>
       </c>
       <c r="V25" t="n">
-        <v>4391.604587469458</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="W25" t="n">
-        <v>4391.604587469458</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X25" t="n">
-        <v>4391.604587469458</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>4391.604587469458</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
         <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6226,28 +6226,28 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014291</v>
@@ -6268,10 +6268,10 @@
         <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6296,7 +6296,7 @@
         <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
         <v>125.4002551675024</v>
@@ -6305,22 +6305,22 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K27" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6417,19 +6417,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>531.3977182706318</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y28" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="29">
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6454,25 +6454,25 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
         <v>3183.709822619127</v>
@@ -6487,13 +6487,13 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
@@ -6502,13 +6502,13 @@
         <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6530,37 +6530,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571608</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636248</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T31" t="n">
-        <v>1262.774559011158</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>973.645920224716</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V31" t="n">
-        <v>718.9614320188291</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W31" t="n">
-        <v>429.5442619818684</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>429.5442619818684</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="32">
@@ -6679,31 +6679,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6718,10 +6718,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6779,22 +6779,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>816.7950850315615</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1124.115218311523</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1453.977845975556</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>731.6365520183392</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C34" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
         <v>97.21709146028584</v>
@@ -6888,22 +6888,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U34" t="n">
-        <v>1209.787631771461</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V34" t="n">
-        <v>1209.787631771461</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W34" t="n">
-        <v>1134.077595992109</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X34" t="n">
-        <v>1134.077595992109</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="Y34" t="n">
-        <v>913.2850168485789</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1208.995055864553</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1538.857683528586</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2208.321444831246</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>843.1711433963917</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C37" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D37" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E37" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>1318.648210745809</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V37" t="n">
-        <v>1063.963722539922</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W37" t="n">
-        <v>1063.963722539922</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X37" t="n">
-        <v>1063.963722539922</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y37" t="n">
-        <v>843.1711433963917</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="38">
@@ -7168,7 +7168,7 @@
         <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028587</v>
@@ -7183,19 +7183,19 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014293</v>
@@ -7253,22 +7253,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>972.2646934632138</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>822.148054050878</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>674.2349604684849</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028587</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>1498.916270557902</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W40" t="n">
-        <v>1498.916270557902</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>1498.916270557902</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y40" t="n">
-        <v>1322.84934122136</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7390,49 +7390,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7490,25 +7490,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1208.995055864553</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1538.857683528586</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
         <v>97.21709146028584</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>943.1622247234138</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>653.7450546864533</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>425.7555037884359</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>425.7555037884359</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7639,19 +7639,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7672,7 +7672,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7724,28 +7724,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1208.995055864553</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1538.857683528586</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2208.321444831246</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7836,22 +7836,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011507</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952638</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028587</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028587</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
   </sheetData>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>90.64146763747122</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8300,7 +8300,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8309,7 +8309,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783517</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270189</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,10 +8543,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>435.9238900028829</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783517</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>29.47535963978208</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776744</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8935,7 +8935,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776744</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9418,7 +9418,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714841</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208061</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9895,7 +9895,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599021</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,28 +10190,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>29.47535963978225</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445218</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>285.1031356539335</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10442,10 +10442,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10606,7 +10606,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599059</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10664,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10679,13 +10679,13 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>124.3400780863232</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445218</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10916,10 +10916,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>96.03744927814699</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,13 +11138,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11153,13 +11153,13 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>199.7396287231156</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445218</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,13 +11375,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11390,13 +11390,13 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>124.3400780863232</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445218</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>23.61454994042634</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>12.15335383078985</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23661,19 +23661,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>90.20766837685346</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,13 +23703,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23901,16 +23901,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,16 +23940,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>231.5383143021782</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>82.39383318338562</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24177,13 +24177,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>143.2352820653736</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24366,22 +24366,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>124.4198406026825</v>
       </c>
       <c r="U25" t="n">
-        <v>241.1482377511823</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24657,19 +24657,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>194.2874683808268</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24858,7 +24858,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,10 +24888,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T31" t="n">
-        <v>185.6880766107152</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25086,13 +25086,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25128,22 +25128,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>211.570062915033</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>51.71984429841024</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25314,7 +25314,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25323,16 +25323,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,25 +25362,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>107.7719731846046</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,25 +25599,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>82.39383318338574</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>44.27839330891823</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25797,7 +25797,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
@@ -25836,16 +25836,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>209.7260514046509</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26076,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26085,10 +26085,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>36.51615797628583</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>757213.0894325103</v>
+        <v>757213.0894325102</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>757213.0894325102</v>
+        <v>757213.0894325103</v>
       </c>
     </row>
     <row r="10">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914264</v>
+        <v>656833.4158914267</v>
       </c>
       <c r="C2" t="n">
         <v>656833.4158914265</v>
@@ -26322,28 +26322,28 @@
         <v>656833.4158914264</v>
       </c>
       <c r="E2" t="n">
-        <v>625646.4955803338</v>
+        <v>625646.4955803341</v>
       </c>
       <c r="F2" t="n">
+        <v>625646.4955803341</v>
+      </c>
+      <c r="G2" t="n">
         <v>625646.4955803343</v>
-      </c>
-      <c r="G2" t="n">
-        <v>625646.495580334</v>
       </c>
       <c r="H2" t="n">
         <v>625646.495580334</v>
       </c>
       <c r="I2" t="n">
+        <v>625646.4955803338</v>
+      </c>
+      <c r="J2" t="n">
         <v>625646.4955803342</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>625646.4955803341</v>
       </c>
-      <c r="K2" t="n">
-        <v>625646.4955803342</v>
-      </c>
       <c r="L2" t="n">
-        <v>625646.495580334</v>
+        <v>625646.4955803341</v>
       </c>
       <c r="M2" t="n">
         <v>625646.4955803341</v>
@@ -26352,10 +26352,10 @@
         <v>625646.4955803341</v>
       </c>
       <c r="O2" t="n">
-        <v>625646.4955803343</v>
+        <v>625646.495580334</v>
       </c>
       <c r="P2" t="n">
-        <v>625646.4955803342</v>
+        <v>625646.495580334</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3.846656682071625e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,13 +26386,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925928</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.170374162029475e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26426,10 +26426,10 @@
         <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143906</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.66962143905</v>
       </c>
       <c r="G4" t="n">
         <v>15045.6696214391</v>
@@ -26441,10 +26441,10 @@
         <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.66962143914</v>
+        <v>15045.66962143916</v>
       </c>
       <c r="K4" t="n">
-        <v>15045.66962143915</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="L4" t="n">
         <v>15045.6696214391</v>
@@ -26472,37 +26472,37 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="H5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="J5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="K5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871665</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871661</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
@@ -26511,7 +26511,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-172768.4996377502</v>
+        <v>-172768.4996377498</v>
       </c>
       <c r="C6" t="n">
-        <v>417199.3795767944</v>
+        <v>417199.3795767945</v>
       </c>
       <c r="D6" t="n">
-        <v>417199.3795767943</v>
+        <v>417199.379576794</v>
       </c>
       <c r="E6" t="n">
-        <v>-6546.536466718389</v>
+        <v>-7521.127726439144</v>
       </c>
       <c r="F6" t="n">
-        <v>518613.5000101788</v>
+        <v>517638.9087504568</v>
       </c>
       <c r="G6" t="n">
-        <v>518613.5000101785</v>
+        <v>517638.908750457</v>
       </c>
       <c r="H6" t="n">
-        <v>518613.5000101783</v>
+        <v>517638.9087504566</v>
       </c>
       <c r="I6" t="n">
-        <v>518613.5000101784</v>
+        <v>517638.9087504564</v>
       </c>
       <c r="J6" t="n">
-        <v>342190.2808175855</v>
+        <v>341215.6895578639</v>
       </c>
       <c r="K6" t="n">
-        <v>518613.5000101785</v>
+        <v>517638.9087504566</v>
       </c>
       <c r="L6" t="n">
-        <v>518613.5000101783</v>
+        <v>517638.9087504568</v>
       </c>
       <c r="M6" t="n">
-        <v>383812.4847763411</v>
+        <v>382837.8935166195</v>
       </c>
       <c r="N6" t="n">
-        <v>518613.5000101784</v>
+        <v>517638.9087504568</v>
       </c>
       <c r="O6" t="n">
-        <v>518613.5000101787</v>
+        <v>517638.9087504566</v>
       </c>
       <c r="P6" t="n">
-        <v>518613.5000101785</v>
+        <v>517638.9087504566</v>
       </c>
     </row>
   </sheetData>
@@ -26737,31 +26737,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541002</v>
@@ -26792,13 +26792,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
         <v>1215.213643253573</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545551</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>212.8730681025883</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>120.1788683742833</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,16 +27435,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27548,19 +27548,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,25 +27581,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>83.08841053406444</v>
       </c>
       <c r="S4" t="n">
-        <v>117.5062691663783</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27624,10 +27624,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>321.4685793061311</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>51.9101482775838</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,19 +27663,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27776,28 +27776,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853698</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,22 +27818,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491428</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>96.01048066168062</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27855,22 +27855,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>232.2011104940579</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448612</v>
@@ -27900,19 +27900,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>245.2407793169688</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491428</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28067,16 +28067,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>198.0472722592426</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>125.8077805475477</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -29286,7 +29286,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -29340,7 +29340,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -29574,7 +29574,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,25 +31460,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31518,10 +31518,10 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554469</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31533,28 +31533,28 @@
         <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O8" t="n">
         <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472037</v>
@@ -31594,13 +31594,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J9" t="n">
         <v>76.7639270839648</v>
@@ -31615,7 +31615,7 @@
         <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
         <v>193.3156655923048</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31676,16 +31676,16 @@
         <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J10" t="n">
         <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31694,19 +31694,19 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,10 +31752,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31764,37 +31764,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,31 +31837,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -31870,7 +31870,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,10 +31989,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -32001,37 +32001,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,31 +32074,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32107,7 +32107,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,10 +32876,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,10 +33113,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770695</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713858</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35108,10 +35108,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35181,7 +35181,7 @@
         <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
         <v>478.8956552492238</v>
@@ -35190,7 +35190,7 @@
         <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q8" t="n">
         <v>153.997506289869</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031299</v>
@@ -35263,10 +35263,10 @@
         <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735647</v>
@@ -35333,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560244</v>
+        <v>278.7330645958064</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411083</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975091992</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209233</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980131</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091992</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209233</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36138,7 +36138,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109137</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
         <v>350.4995841502048</v>
@@ -36360,28 +36360,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,28 +36439,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523309</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,28 +36597,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502023</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,22 +36676,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958065</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,13 +37147,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>534.3608406099578</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504662</v>
@@ -37162,10 +37162,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37314,7 +37314,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37326,7 +37326,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
         <v>59.82538970349808</v>
@@ -37384,13 +37384,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504662</v>
@@ -37399,13 +37399,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>331.4334930178478</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
@@ -37636,10 +37636,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>378.4011515192551</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,13 +37858,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504662</v>
@@ -37873,13 +37873,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>482.1033309642237</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504662</v>
@@ -38110,13 +38110,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>331.4334930178478</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3022211.345532454</v>
+        <v>3027150.608381486</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>38.6284936122894</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>31.75244787057794</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -837,7 +837,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -861,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>63.57678144609342</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>22.75446130335986</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -904,10 +904,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>60.46179076613072</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -955,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>325.2557485598865</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>59.66385641544537</v>
+        <v>59.66385641544559</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>89.38752489487646</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481165</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>5.983388191320505</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491427</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1347,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>99.90187484148946</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>192.5627265154902</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,19 +1530,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>154.3402146325877</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>249.7211944222915</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338503</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>143.3158222056514</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1897,7 +1897,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -2052,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>169.7438101404424</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T25" t="n">
-        <v>97.12772045570674</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2538,13 +2538,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2617,10 +2617,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2769,10 +2769,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>203.8435192151918</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>237.3965091869248</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>115.5269768002176</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>173.9898110906269</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3283,10 +3283,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3483,16 +3483,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>143.3158222056514</v>
+        <v>176.8688121773847</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3720,13 +3720,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>169.7438101404423</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>139.1537278750038</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>143.2925104849745</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4197,10 +4197,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>250.0068403603052</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4318,13 +4318,13 @@
         <v>510.9254703386316</v>
       </c>
       <c r="F2" t="n">
-        <v>99.939565549024</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>86.01616148761489</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>86.01616148761489</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4333,10 +4333,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4403,31 +4403,31 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>663.9100130487641</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="C4" t="n">
-        <v>663.9100130487641</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="D4" t="n">
-        <v>663.9100130487641</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="E4" t="n">
-        <v>663.9100130487641</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="F4" t="n">
-        <v>517.0200655508537</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G4" t="n">
-        <v>348.0202652891861</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>663.9100130487641</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S4" t="n">
-        <v>663.9100130487641</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="T4" t="n">
-        <v>663.9100130487641</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="U4" t="n">
-        <v>663.9100130487641</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="V4" t="n">
-        <v>663.9100130487641</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="W4" t="n">
-        <v>663.9100130487641</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="X4" t="n">
-        <v>663.9100130487641</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="Y4" t="n">
-        <v>663.9100130487641</v>
+        <v>527.5811021474123</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>863.1126181035238</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C5" t="n">
-        <v>494.1501011631121</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>135.8844025563616</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>74.81188663097701</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177354</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4603,16 +4603,16 @@
         <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.086203674651</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>2013.317548404537</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X5" t="n">
-        <v>1639.851790143457</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y5" t="n">
-        <v>1249.712458167646</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="6">
@@ -4643,7 +4643,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4652,13 +4652,13 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4701,7 +4701,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
         <v>667.8624625746712</v>
@@ -4710,67 +4710,67 @@
         <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799423</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
         <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>802.0401021781393</v>
+        <v>885.3850306156796</v>
       </c>
       <c r="C8" t="n">
-        <v>433.0775852377275</v>
+        <v>516.422513675268</v>
       </c>
       <c r="D8" t="n">
-        <v>74.81188663097704</v>
+        <v>158.1568150685175</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097704</v>
+        <v>158.1568150685175</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177357</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224083</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977176</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018224</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548717</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548717</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548717</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2636.076575092838</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V8" t="n">
-        <v>2305.013687749267</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W8" t="n">
-        <v>1952.245032479153</v>
+        <v>2035.589960916693</v>
       </c>
       <c r="X8" t="n">
-        <v>1578.779274218073</v>
+        <v>1662.124202655613</v>
       </c>
       <c r="Y8" t="n">
-        <v>1188.639942242261</v>
+        <v>1271.984870679801</v>
       </c>
     </row>
     <row r="9">
@@ -4880,22 +4880,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615929</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572649</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036448</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036448</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036448</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477912</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600566</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600566</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600566</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600566</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>409.5384547146245</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>154.8539665087377</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>154.8539665087377</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036448</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036448</v>
+        <v>533.621179645333</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>563.7235867775516</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>716.8555221680798</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>547.9193392401729</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>547.9193392401729</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>400.0062456577798</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>253.1162981598694</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5205,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>1187.92115703528</v>
+        <v>822.9672145333731</v>
       </c>
       <c r="V13" t="n">
-        <v>1187.92115703528</v>
+        <v>568.2827263274862</v>
       </c>
       <c r="W13" t="n">
-        <v>898.5039869983195</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="X13" t="n">
-        <v>898.5039869983195</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y13" t="n">
-        <v>898.5039869983195</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="14">
@@ -5275,37 +5275,37 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5354,16 +5354,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
         <v>1302.911127126629</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5442,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5466,22 +5466,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V16" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W16" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5518,16 +5518,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5594,25 +5594,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5700,22 +5700,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765186</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952637</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y19" t="n">
         <v>97.21709146028584</v>
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5737,25 +5737,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5788,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5840,7 +5840,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
         <v>1558.376451307619</v>
@@ -5943,13 +5943,13 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X22" t="n">
         <v>97.21709146028584</v>
@@ -5989,28 +5989,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6077,7 +6077,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
         <v>1558.376451307619</v>
@@ -6171,25 +6171,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T25" t="n">
-        <v>1089.812348494162</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>800.6837097077201</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>545.9992215018333</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
         <v>97.21709146028584</v>
@@ -6223,49 +6223,49 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
         <v>3205.060556590537</v>
@@ -6293,28 +6293,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6417,19 +6417,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011506</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028583</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6442,28 +6442,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
         <v>889.2841917514083</v>
@@ -6481,13 +6481,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6539,28 +6539,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>563.7235867775518</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011507</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952638</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6691,19 +6691,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6779,25 +6779,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>563.7235867775516</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,7 +6834,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
         <v>97.21709146028584</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>986.0022165609664</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>731.3177283550796</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W34" t="n">
-        <v>441.900558318119</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X34" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6916,25 +6916,25 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
@@ -6946,37 +6946,37 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
         <v>3205.060556590537</v>
@@ -7013,28 +7013,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7131,16 +7131,16 @@
         <v>786.0822064765186</v>
       </c>
       <c r="V37" t="n">
-        <v>531.3977182706318</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W37" t="n">
-        <v>241.9805482336712</v>
+        <v>496.665036439558</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028587</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7165,40 +7165,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7250,28 +7250,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>563.7235867775516</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7368,16 +7368,16 @@
         <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952638</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7411,7 +7411,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514082</v>
@@ -7423,16 +7423,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7490,25 +7490,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G43" t="n">
         <v>97.21709146028584</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011506</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952637</v>
+        <v>1354.17636097712</v>
       </c>
       <c r="W43" t="n">
-        <v>325.2066423583032</v>
+        <v>1064.759190940159</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028584</v>
+        <v>836.769640042142</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>615.9770608986119</v>
       </c>
     </row>
     <row r="44">
@@ -7648,7 +7648,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514082</v>
@@ -7660,16 +7660,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7736,7 +7736,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>278.8655562905255</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747122</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8300,7 +8300,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8309,7 +8309,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783519</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,10 +8543,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783517</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>29.47535963978208</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9017,7 +9017,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>423.3376789165115</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,28 +9242,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445217</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298295</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,28 +10190,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>29.47535963978225</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445218</v>
@@ -10427,31 +10427,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>29.47535963978208</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10664,31 +10664,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>52.49733361305249</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10901,31 +10901,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>29.47535963978208</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,31 +11138,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>52.49733361305249</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11299,7 +11299,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23418,19 +23418,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>12.15335383078985</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>36.51615797628585</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23940,16 +23940,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>82.39383318338562</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T25" t="n">
-        <v>124.4198406026825</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24657,10 +24657,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>82.39383318338557</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>14.74113413690318</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24888,13 +24888,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>82.39383318338567</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25125,7 +25125,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>51.71984429841024</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25371,16 +25371,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>82.39383318338571</v>
+        <v>48.8408432116525</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25608,13 +25608,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>82.39383318338574</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25836,16 +25836,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>82.39383318338548</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>108.8451328388535</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26073,7 +26073,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26085,10 +26085,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>36.51615797628583</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>757213.0894325103</v>
+        <v>757213.0894325102</v>
       </c>
     </row>
     <row r="10">
@@ -26316,46 +26316,46 @@
         <v>656833.4158914267</v>
       </c>
       <c r="C2" t="n">
+        <v>656833.4158914264</v>
+      </c>
+      <c r="D2" t="n">
         <v>656833.4158914265</v>
       </c>
-      <c r="D2" t="n">
-        <v>656833.4158914264</v>
-      </c>
       <c r="E2" t="n">
-        <v>625646.4955803341</v>
+        <v>625646.495580334</v>
       </c>
       <c r="F2" t="n">
         <v>625646.4955803341</v>
       </c>
       <c r="G2" t="n">
-        <v>625646.4955803343</v>
+        <v>625646.495580334</v>
       </c>
       <c r="H2" t="n">
-        <v>625646.495580334</v>
+        <v>625646.4955803341</v>
       </c>
       <c r="I2" t="n">
-        <v>625646.4955803338</v>
+        <v>625646.4955803339</v>
       </c>
       <c r="J2" t="n">
-        <v>625646.4955803342</v>
+        <v>625646.4955803339</v>
       </c>
       <c r="K2" t="n">
         <v>625646.4955803341</v>
       </c>
       <c r="L2" t="n">
+        <v>625646.4955803342</v>
+      </c>
+      <c r="M2" t="n">
+        <v>625646.495580334</v>
+      </c>
+      <c r="N2" t="n">
+        <v>625646.4955803342</v>
+      </c>
+      <c r="O2" t="n">
+        <v>625646.4955803342</v>
+      </c>
+      <c r="P2" t="n">
         <v>625646.4955803341</v>
-      </c>
-      <c r="M2" t="n">
-        <v>625646.4955803341</v>
-      </c>
-      <c r="N2" t="n">
-        <v>625646.4955803341</v>
-      </c>
-      <c r="O2" t="n">
-        <v>625646.495580334</v>
-      </c>
-      <c r="P2" t="n">
-        <v>625646.495580334</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.846656682071625e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>1.170374162029475e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26426,10 +26426,10 @@
         <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.66962143906</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.66962143905</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
         <v>15045.6696214391</v>
@@ -26441,7 +26441,7 @@
         <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.66962143916</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
         <v>15045.6696214391</v>
@@ -26475,31 +26475,31 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="J5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="K5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="I5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871661</v>
-      </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="L5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
@@ -26508,10 +26508,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-172768.4996377498</v>
+        <v>-172768.4996377499</v>
       </c>
       <c r="C6" t="n">
+        <v>417199.3795767943</v>
+      </c>
+      <c r="D6" t="n">
         <v>417199.3795767945</v>
       </c>
-      <c r="D6" t="n">
-        <v>417199.379576794</v>
-      </c>
       <c r="E6" t="n">
-        <v>-7521.127726439144</v>
+        <v>-6643.995592690044</v>
       </c>
       <c r="F6" t="n">
-        <v>517638.9087504568</v>
+        <v>518516.0408842062</v>
       </c>
       <c r="G6" t="n">
-        <v>517638.908750457</v>
+        <v>518516.0408842061</v>
       </c>
       <c r="H6" t="n">
-        <v>517638.9087504566</v>
+        <v>518516.0408842062</v>
       </c>
       <c r="I6" t="n">
-        <v>517638.9087504564</v>
+        <v>518516.040884206</v>
       </c>
       <c r="J6" t="n">
-        <v>341215.6895578639</v>
+        <v>342092.821691613</v>
       </c>
       <c r="K6" t="n">
-        <v>517638.9087504566</v>
+        <v>518516.0408842062</v>
       </c>
       <c r="L6" t="n">
-        <v>517638.9087504568</v>
+        <v>518516.0408842064</v>
       </c>
       <c r="M6" t="n">
-        <v>382837.8935166195</v>
+        <v>383715.0256503689</v>
       </c>
       <c r="N6" t="n">
-        <v>517638.9087504568</v>
+        <v>518516.0408842064</v>
       </c>
       <c r="O6" t="n">
-        <v>517638.9087504566</v>
+        <v>518516.0408842064</v>
       </c>
       <c r="P6" t="n">
-        <v>517638.9087504566</v>
+        <v>518516.0408842062</v>
       </c>
     </row>
   </sheetData>
@@ -26737,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="C3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
-      <c r="C3" t="n">
-        <v>377.7436642170866</v>
-      </c>
-      <c r="D3" t="n">
-        <v>377.7436642170869</v>
-      </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>368.247552129422</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>120.1788683742833</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27557,10 +27557,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>83.08841053406444</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>189.3910776466591</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27624,10 +27624,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>321.4685793061311</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27675,13 +27675,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>44.47535211858258</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27776,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>107.5829646831825</v>
+        <v>107.5829646831822</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27864,7 +27864,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>317.4885208468349</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,10 +27909,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>245.2407793169688</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853697</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28067,19 +28067,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>125.8077805475477</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>26.02192683660456</v>
       </c>
     </row>
     <row r="11">
@@ -29340,7 +29340,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31694,28 +31694,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>325.1459203262123</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338904</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O9" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>278.7330645958064</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
@@ -35734,19 +35734,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
         <v>756.5322523145245</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36208,16 +36208,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,16 +36445,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,16 +36682,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>278.7330645958065</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958064</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>334.8610358541607</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958064</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,16 +37779,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>334.8610358541607</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,16 +38104,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
